--- a/Buyer hub/Users/Manual testcases/Add new user testcases.xlsx
+++ b/Buyer hub/Users/Manual testcases/Add new user testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testcases one group\Buyer hub\Users\Manual testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Users\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827FAB31-2D30-44E0-81E0-3068634C60CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85D25EB-C8E7-4524-882F-AA2EE6E5A350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>SL. No</t>
   </si>
@@ -508,6 +508,15 @@
       </rPr>
       <t xml:space="preserve"> should have toaster message like Successfully updated User </t>
     </r>
+  </si>
+  <si>
+    <t>Basic information &gt; Mobile phone</t>
+  </si>
+  <si>
+    <t>If market is AU prefix should be set to +61. need to allow longer numbers (up to 20 chars).</t>
+  </si>
+  <si>
+    <t>It gets displayed as expected</t>
   </si>
 </sst>
 </file>
@@ -964,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1153,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1155,65 +1164,65 @@
         <v>9</v>
       </c>
       <c r="D8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="G9" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>27</v>
-      </c>
       <c r="G10" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1224,19 +1233,19 @@
         <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1247,19 +1256,19 @@
         <v>9</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1270,42 +1279,42 @@
         <v>9</v>
       </c>
       <c r="D13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>35</v>
-      </c>
       <c r="G14" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1316,19 +1325,19 @@
         <v>9</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1339,19 +1348,19 @@
         <v>9</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1362,15 +1371,38 @@
         <v>9</v>
       </c>
       <c r="D17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G18" s="10" t="s">
         <v>13</v>
       </c>
     </row>
